--- a/R_C14_DADA2/phyloseq/figures_petb compare/subclade_percent_wide.xlsx
+++ b/R_C14_DADA2/phyloseq/figures_petb compare/subclade_percent_wide.xlsx
@@ -1,21 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/figures_petb compare/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C58D6-0170-5449-A358-8BCE83179F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+  <si>
+    <t>water_mass</t>
+  </si>
+  <si>
+    <t>cycle_name</t>
+  </si>
+  <si>
+    <t>sample_number</t>
+  </si>
+  <si>
+    <t>percent_denise_EnvA</t>
+  </si>
+  <si>
+    <t>percent_denise_Ia</t>
+  </si>
+  <si>
+    <t>percent_denise_Ib</t>
+  </si>
+  <si>
+    <t>percent_denise_IVa</t>
+  </si>
+  <si>
+    <t>percent_denise_IVb</t>
+  </si>
+  <si>
+    <t>percent_denise_UC-A</t>
+  </si>
+  <si>
+    <t>percent_denise_CRD1</t>
+  </si>
+  <si>
+    <t>percent_denise_II-WPC2</t>
+  </si>
+  <si>
+    <t>percent_denise_VIb</t>
+  </si>
+  <si>
+    <t>percent_denise_Ic</t>
+  </si>
+  <si>
+    <t>percent_denise_EnvB</t>
+  </si>
+  <si>
+    <t>percent_denise_V</t>
+  </si>
+  <si>
+    <t>percent_denise_IIh</t>
+  </si>
+  <si>
+    <t>percent_denise_IIe</t>
+  </si>
+  <si>
+    <t>percent_denise_WPC1</t>
+  </si>
+  <si>
+    <t>percent_denise_VIc</t>
+  </si>
+  <si>
+    <t>percent_mazard_EnvA</t>
+  </si>
+  <si>
+    <t>percent_mazard_Ia</t>
+  </si>
+  <si>
+    <t>percent_mazard_Ib</t>
+  </si>
+  <si>
+    <t>percent_mazard_IVa</t>
+  </si>
+  <si>
+    <t>percent_mazard_IVb</t>
+  </si>
+  <si>
+    <t>percent_mazard_UC-A</t>
+  </si>
+  <si>
+    <t>percent_mazard_CRD1</t>
+  </si>
+  <si>
+    <t>percent_mazard_II-WPC2</t>
+  </si>
+  <si>
+    <t>percent_mazard_VIb</t>
+  </si>
+  <si>
+    <t>percent_mazard_Ic</t>
+  </si>
+  <si>
+    <t>percent_mazard_EnvB</t>
+  </si>
+  <si>
+    <t>percent_mazard_V</t>
+  </si>
+  <si>
+    <t>percent_mazard_IIh</t>
+  </si>
+  <si>
+    <t>percent_mazard_IIe</t>
+  </si>
+  <si>
+    <t>percent_mazard_WPC1</t>
+  </si>
+  <si>
+    <t>percent_mazard_VIc</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SA-Cycle_1</t>
+  </si>
+  <si>
+    <t>SA-Cycle_2</t>
+  </si>
+  <si>
+    <t>SA-Cycle_5</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>ST-Cycle_3</t>
+  </si>
+  <si>
+    <t>ST-Cycle_4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,200 +531,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>water_mass</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>cycle_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sample_number</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_EnvA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_Ia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_Ib</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_IVa</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_IVb</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_UC-A</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_CRD1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_II-WPC2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_VIb</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_Ic</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_EnvB</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_V</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_IIh</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_IIe</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_WPC1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>percent_denise_VIc</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_EnvA</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_Ia</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_Ib</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_IVa</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_IVb</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_UC-A</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_CRD1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_II-WPC2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_VIb</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_Ic</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_EnvB</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_V</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_IIh</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_IIe</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_WPC1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>percent_mazard_VIc</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2">
         <v>128</v>
@@ -552,289 +696,269 @@
         <v>0.109452736318408</v>
       </c>
       <c r="E2">
-        <v>4.258706467661692</v>
+        <v>4.2587064676616917</v>
       </c>
       <c r="F2">
-        <v>51.04477611940299</v>
+        <v>51.044776119402989</v>
       </c>
       <c r="G2">
-        <v>6.139303482587064</v>
+        <v>6.1393034825870636</v>
       </c>
       <c r="H2">
-        <v>38.40796019900498</v>
+        <v>38.407960199004982</v>
       </c>
       <c r="I2">
-        <v>0.03980099502487562</v>
+        <v>3.9800995024875621E-2</v>
       </c>
       <c r="U2">
-        <v>2.228334529219485</v>
+        <v>2.2283345292194849</v>
       </c>
       <c r="V2">
-        <v>45.40381089053655</v>
+        <v>45.403810890536548</v>
       </c>
       <c r="W2">
-        <v>6.194690265486726</v>
+        <v>6.1946902654867264</v>
       </c>
       <c r="X2">
         <v>45.65893326955274</v>
       </c>
       <c r="Y2">
-        <v>0.3109303994259747</v>
+        <v>0.31093039942597472</v>
       </c>
       <c r="AA2">
-        <v>0.1714103484014989</v>
+        <v>0.17141034840149891</v>
       </c>
       <c r="AC2">
-        <v>0.03189029737702304</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>3.1890297377023043E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
       <c r="C3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>3.004591734877221</v>
+        <v>3.0045917348772209</v>
       </c>
       <c r="F3">
-        <v>51.62707127171092</v>
+        <v>51.627071271710918</v>
       </c>
       <c r="G3">
-        <v>6.06907566380515</v>
+        <v>6.0690756638051502</v>
       </c>
       <c r="H3">
-        <v>39.14953084447993</v>
+        <v>39.149530844479933</v>
       </c>
       <c r="I3">
-        <v>0.08983829107606309</v>
+        <v>8.9838291076063087E-2</v>
       </c>
       <c r="J3">
-        <v>0.01996406468356957</v>
+        <v>1.9964064683569569E-2</v>
       </c>
       <c r="K3">
-        <v>0.009982032341784786</v>
+        <v>9.9820323417847863E-3</v>
       </c>
       <c r="L3">
-        <v>0.02994609702535436</v>
+        <v>2.9946097025354359E-2</v>
       </c>
       <c r="U3">
-        <v>1.679097036652973</v>
+        <v>1.6790970366529729</v>
       </c>
       <c r="V3">
-        <v>47.28991345271806</v>
+        <v>47.289913452718061</v>
       </c>
       <c r="W3">
-        <v>6.564830694372432</v>
+        <v>6.5648306943724322</v>
       </c>
       <c r="X3">
-        <v>43.67646472300881</v>
+        <v>43.676464723008813</v>
       </c>
       <c r="Y3">
-        <v>0.7458221991783991</v>
+        <v>0.74582219917839909</v>
       </c>
       <c r="AA3">
-        <v>0.0239301240378096</v>
+        <v>2.39301240378096E-2</v>
       </c>
       <c r="AC3">
-        <v>0.019941770031508</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>1.9941770031507999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>6.002592481802772</v>
+        <v>6.0025924818027718</v>
       </c>
       <c r="F4">
         <v>47.36264831987237</v>
       </c>
       <c r="G4">
-        <v>4.706351580416792</v>
+        <v>4.7063515804167917</v>
       </c>
       <c r="H4">
-        <v>41.74892810848539</v>
+        <v>41.748928108485387</v>
       </c>
       <c r="I4">
-        <v>0.1495662578522285</v>
+        <v>0.14956625785222849</v>
       </c>
       <c r="K4">
-        <v>0.02991325157044571</v>
+        <v>2.991325157044571E-2</v>
       </c>
       <c r="U4">
         <v>3.511712358833154</v>
       </c>
       <c r="V4">
-        <v>41.72153717227344</v>
+        <v>41.721537172273443</v>
       </c>
       <c r="W4">
-        <v>2.933077936070873</v>
+        <v>2.9330779360708732</v>
       </c>
       <c r="X4">
-        <v>50.42499700706333</v>
+        <v>50.424997007063332</v>
       </c>
       <c r="Y4">
-        <v>0.834031685222874</v>
+        <v>0.83403168522287396</v>
       </c>
       <c r="AA4">
         <v>0.4988227782433457</v>
       </c>
       <c r="AC4">
-        <v>0.07582106229298854</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>7.5821062292988545E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5">
         <v>135</v>
       </c>
       <c r="E5">
-        <v>7.578171678948417</v>
+        <v>7.5781716789484168</v>
       </c>
       <c r="F5">
-        <v>46.81338378809002</v>
+        <v>46.813383788090022</v>
       </c>
       <c r="G5">
         <v>3.764190400318661</v>
       </c>
       <c r="H5">
-        <v>41.7347142003585</v>
+        <v>41.734714200358503</v>
       </c>
       <c r="I5">
-        <v>0.06970722963553076</v>
+        <v>6.9707229635530762E-2</v>
       </c>
       <c r="J5">
-        <v>0.03983270264887472</v>
+        <v>3.9832702648874722E-2</v>
       </c>
       <c r="U5">
-        <v>4.02631054414989</v>
+        <v>4.0263105441498901</v>
       </c>
       <c r="V5">
-        <v>42.23240980665737</v>
+        <v>42.232409806657373</v>
       </c>
       <c r="W5">
-        <v>2.451664341239784</v>
+        <v>2.4516643412397841</v>
       </c>
       <c r="X5">
-        <v>49.97010165437513</v>
+        <v>49.970101654375128</v>
       </c>
       <c r="Y5">
-        <v>0.7693840940801275</v>
+        <v>0.76938409408012753</v>
       </c>
       <c r="AA5">
-        <v>0.5142515447478573</v>
+        <v>0.51425154474785728</v>
       </c>
       <c r="AC5">
-        <v>0.03587801474985051</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>3.5878014749850508E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6">
         <v>136</v>
       </c>
       <c r="E6">
-        <v>6.622780769998005</v>
+        <v>6.6227807699980046</v>
       </c>
       <c r="F6">
-        <v>47.98523838021145</v>
+        <v>47.985238380211449</v>
       </c>
       <c r="G6">
-        <v>3.361260722122482</v>
+        <v>3.3612607221224819</v>
       </c>
       <c r="H6">
-        <v>41.9409535208458</v>
+        <v>41.940953520845802</v>
       </c>
       <c r="I6">
-        <v>0.07979253939756632</v>
+        <v>7.9792539397566323E-2</v>
       </c>
       <c r="K6">
-        <v>0.00997406742469579</v>
+        <v>9.9740674246957903E-3</v>
       </c>
       <c r="U6">
-        <v>3.628533833087444</v>
+        <v>3.6285338330874439</v>
       </c>
       <c r="V6">
-        <v>39.76633837074844</v>
+        <v>39.766338370748443</v>
       </c>
       <c r="W6">
-        <v>2.492124885362255</v>
+        <v>2.4921248853622551</v>
       </c>
       <c r="X6">
-        <v>52.80513577096375</v>
+        <v>52.805135770963751</v>
       </c>
       <c r="Y6">
-        <v>0.7895051636827626</v>
+        <v>0.78950516368276258</v>
       </c>
       <c r="AA6">
-        <v>0.458550978906655</v>
+        <v>0.45855097890665503</v>
       </c>
       <c r="AC6">
-        <v>0.05981099724869413</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>5.9810997248694132E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
       <c r="C7">
         <v>213</v>
       </c>
       <c r="E7">
-        <v>5.903985687307425</v>
+        <v>5.9039856873074248</v>
       </c>
       <c r="F7">
-        <v>48.17612563363483</v>
+        <v>48.176125633634832</v>
       </c>
       <c r="G7">
-        <v>4.333565251963026</v>
+        <v>4.3335652519630257</v>
       </c>
       <c r="H7">
-        <v>41.43723287943544</v>
+        <v>41.437232879435442</v>
       </c>
       <c r="I7">
         <v>0.1490905476592784</v>
@@ -843,160 +967,148 @@
         <v>6.026402903521717</v>
       </c>
       <c r="V7">
-        <v>51.58138236349858</v>
+        <v>51.581382363498577</v>
       </c>
       <c r="W7">
-        <v>3.286403701192518</v>
+        <v>3.2864037011925178</v>
       </c>
       <c r="X7">
-        <v>38.3918956646592</v>
+        <v>38.391895664659202</v>
       </c>
       <c r="Y7">
         <v>0.5384277908507159</v>
       </c>
       <c r="AA7">
-        <v>0.05184860208192079</v>
+        <v>5.184860208192079E-2</v>
       </c>
       <c r="AC7">
         <v>0.1236389741953496</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
       <c r="C8">
         <v>214</v>
       </c>
       <c r="E8">
-        <v>4.889198052270695</v>
+        <v>4.8891980522706948</v>
       </c>
       <c r="F8">
-        <v>49.50809897644837</v>
+        <v>49.508098976448373</v>
       </c>
       <c r="G8">
-        <v>3.488025439729703</v>
+        <v>3.4880254397297028</v>
       </c>
       <c r="H8">
-        <v>42.06499055947531</v>
+        <v>42.064990559475312</v>
       </c>
       <c r="I8">
-        <v>0.04968697207592169</v>
+        <v>4.9686972075921688E-2</v>
       </c>
       <c r="U8">
-        <v>3.086493599712885</v>
+        <v>3.0864935997128851</v>
       </c>
       <c r="V8">
-        <v>44.29955736332097</v>
+        <v>44.299557363320972</v>
       </c>
       <c r="W8">
-        <v>2.233121984288392</v>
+        <v>2.2331219842883918</v>
       </c>
       <c r="X8">
-        <v>50.13757626510348</v>
+        <v>50.137576265103483</v>
       </c>
       <c r="Y8">
         <v>0.1674841488216294</v>
       </c>
       <c r="AA8">
-        <v>0.05184033177812338</v>
+        <v>5.1840331778123382E-2</v>
       </c>
       <c r="AC8">
-        <v>0.02392630697451848</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>2.3926306974518481E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
       </c>
       <c r="C9">
         <v>216</v>
       </c>
       <c r="E9">
-        <v>3.536561067941821</v>
+        <v>3.5365610679418209</v>
       </c>
       <c r="F9">
         <v>56.31599920302849</v>
       </c>
       <c r="G9">
-        <v>3.028491731420602</v>
+        <v>3.0284917314206021</v>
       </c>
       <c r="H9">
-        <v>36.96951583980873</v>
+        <v>36.969515839808729</v>
       </c>
       <c r="I9">
-        <v>0.09962143853357243</v>
+        <v>9.9621438533572429E-2</v>
       </c>
       <c r="J9">
-        <v>0.04981071926678621</v>
+        <v>4.9810719266786208E-2</v>
       </c>
       <c r="U9">
-        <v>2.453424821478438</v>
+        <v>2.4534248214784382</v>
       </c>
       <c r="V9">
         <v>45.56987274105397</v>
       </c>
       <c r="W9">
-        <v>2.313799018630072</v>
+        <v>2.3137990186300721</v>
       </c>
       <c r="X9">
-        <v>49.46742729484981</v>
+        <v>49.467427294849813</v>
       </c>
       <c r="Y9">
-        <v>0.08377548170901983</v>
+        <v>8.3775481709019828E-2</v>
       </c>
       <c r="AA9">
-        <v>0.01994654326405234</v>
+        <v>1.994654326405234E-2</v>
       </c>
       <c r="AC9">
-        <v>0.09175409901464075</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>9.1754099014640753E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
       </c>
       <c r="C10">
         <v>217</v>
       </c>
       <c r="E10">
-        <v>1.447394689558794</v>
+        <v>1.4473946895587939</v>
       </c>
       <c r="F10">
-        <v>53.60351367538431</v>
+        <v>53.603513675384313</v>
       </c>
       <c r="G10">
-        <v>7.825913355959273</v>
+        <v>7.8259133559592726</v>
       </c>
       <c r="H10">
-        <v>37.03333998802157</v>
+        <v>37.033339988021567</v>
       </c>
       <c r="I10">
-        <v>0.04991016170892393</v>
+        <v>4.9910161708923928E-2</v>
       </c>
       <c r="J10">
-        <v>0.03992812936713915</v>
+        <v>3.9928129367139152E-2</v>
       </c>
       <c r="U10">
         <v>1.427318395662228</v>
@@ -1005,28 +1117,24 @@
         <v>49.74483693485368</v>
       </c>
       <c r="W10">
-        <v>7.511362730244797</v>
+        <v>7.5113627302447972</v>
       </c>
       <c r="X10">
-        <v>41.2487042500598</v>
+        <v>41.248704250059802</v>
       </c>
       <c r="Y10">
-        <v>0.04385615182202376</v>
+        <v>4.3856151822023758E-2</v>
       </c>
       <c r="AA10">
-        <v>0.02392153735746751</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>2.392153735746751E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
       <c r="C11">
         <v>219</v>
@@ -1035,19 +1143,19 @@
         <v>3.575697211155378</v>
       </c>
       <c r="F11">
-        <v>53.52589641434263</v>
+        <v>53.525896414342633</v>
       </c>
       <c r="G11">
-        <v>4.850597609561753</v>
+        <v>4.8505976095617527</v>
       </c>
       <c r="H11">
-        <v>37.92828685258964</v>
+        <v>37.928286852589643</v>
       </c>
       <c r="I11">
         <v>0.1195219123505976</v>
       </c>
       <c r="U11">
-        <v>2.640816977820329</v>
+        <v>2.6408169778203292</v>
       </c>
       <c r="V11">
         <v>47.76607627253869</v>
@@ -1056,175 +1164,159 @@
         <v>3.965214616243816</v>
       </c>
       <c r="X11">
-        <v>45.28482527525131</v>
+        <v>45.284825275251308</v>
       </c>
       <c r="Y11">
-        <v>0.2991862134992819</v>
+        <v>0.29918621349928187</v>
       </c>
       <c r="AA11">
-        <v>0.04388064464656136</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>4.3880644646561363E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
       </c>
       <c r="C12">
         <v>220</v>
       </c>
       <c r="E12">
-        <v>3.231579994034006</v>
+        <v>3.2315799940340062</v>
       </c>
       <c r="F12">
-        <v>50.63140101421896</v>
+        <v>50.631401014218959</v>
       </c>
       <c r="G12">
-        <v>4.653475191408969</v>
+        <v>4.6534751914089689</v>
       </c>
       <c r="H12">
-        <v>41.35428060057671</v>
+        <v>41.354280600576708</v>
       </c>
       <c r="I12">
-        <v>0.1292631997613602</v>
+        <v>0.12926319976136019</v>
       </c>
       <c r="U12">
-        <v>2.534221973899509</v>
+        <v>2.5342219738995091</v>
       </c>
       <c r="V12">
-        <v>48.48944406752604</v>
+        <v>48.489444067526037</v>
       </c>
       <c r="W12">
-        <v>3.875164624655785</v>
+        <v>3.8751646246557852</v>
       </c>
       <c r="X12">
-        <v>44.57037953466097</v>
+        <v>44.570379534660972</v>
       </c>
       <c r="Y12">
-        <v>0.3751446701520533</v>
+        <v>0.37514467015205327</v>
       </c>
       <c r="AA12">
-        <v>0.09578161791116255</v>
+        <v>9.5781617911162548E-2</v>
       </c>
       <c r="AC12">
-        <v>0.0598635111944766</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>5.9863511194476603E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
       </c>
       <c r="C13">
         <v>222</v>
       </c>
       <c r="E13">
-        <v>2.964071856287425</v>
+        <v>2.9640718562874251</v>
       </c>
       <c r="F13">
-        <v>52.07584830339322</v>
+        <v>52.075848303393222</v>
       </c>
       <c r="G13">
-        <v>6.177644710578843</v>
+        <v>6.1776447105788428</v>
       </c>
       <c r="H13">
-        <v>38.70259481037925</v>
+        <v>38.702594810379253</v>
       </c>
       <c r="I13">
-        <v>0.07984031936127745</v>
+        <v>7.9840319361277445E-2</v>
       </c>
       <c r="U13">
-        <v>1.575337002472681</v>
+        <v>1.5753370024726809</v>
       </c>
       <c r="V13">
-        <v>46.9689718433437</v>
+        <v>46.968971843343702</v>
       </c>
       <c r="W13">
-        <v>5.611390284757118</v>
+        <v>5.6113902847571184</v>
       </c>
       <c r="X13">
-        <v>45.39363484087102</v>
+        <v>45.393634840871023</v>
       </c>
       <c r="Y13">
-        <v>0.4506660285554758</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>0.45066602855547577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
       <c r="C14">
         <v>223</v>
       </c>
       <c r="E14">
-        <v>1.337859424920128</v>
+        <v>1.3378594249201281</v>
       </c>
       <c r="F14">
-        <v>52.02675718849841</v>
+        <v>52.026757188498408</v>
       </c>
       <c r="G14">
-        <v>6.190095846645367</v>
+        <v>6.1900958466453666</v>
       </c>
       <c r="H14">
-        <v>40.13578274760383</v>
+        <v>40.135782747603827</v>
       </c>
       <c r="I14">
-        <v>0.08985623003194888</v>
+        <v>8.9856230031948883E-2</v>
       </c>
       <c r="J14">
-        <v>0.1497603833865815</v>
+        <v>0.14976038338658151</v>
       </c>
       <c r="M14">
-        <v>0.06988817891373801</v>
+        <v>6.9888178913738011E-2</v>
       </c>
       <c r="U14">
-        <v>1.316734498443859</v>
+        <v>1.3167344984438589</v>
       </c>
       <c r="V14">
-        <v>48.30819567472668</v>
+        <v>48.308195674726683</v>
       </c>
       <c r="W14">
-        <v>4.911818689649669</v>
+        <v>4.9118186896496692</v>
       </c>
       <c r="X14">
         <v>45.2078844465725</v>
       </c>
       <c r="Y14">
-        <v>0.1835448088739925</v>
+        <v>0.18354480887399249</v>
       </c>
       <c r="AC14">
-        <v>0.07182188173330141</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SA-Cycle_1</t>
-        </is>
+        <v>7.182188173330141E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
       <c r="C15">
         <v>224</v>
@@ -1233,202 +1325,190 @@
         <v>2.111343491684095</v>
       </c>
       <c r="F15">
-        <v>52.92301563589283</v>
+        <v>52.923015635892831</v>
       </c>
       <c r="G15">
-        <v>5.168807887660591</v>
+        <v>5.1688078876605914</v>
       </c>
       <c r="H15">
-        <v>39.70720047804004</v>
+        <v>39.707200478040043</v>
       </c>
       <c r="I15">
-        <v>0.05975500448162533</v>
+        <v>5.975500448162533E-2</v>
       </c>
       <c r="J15">
-        <v>0.01991833482720844</v>
+        <v>1.991833482720844E-2</v>
       </c>
       <c r="K15">
-        <v>0.009959167413604222</v>
+        <v>9.9591674136042217E-3</v>
       </c>
       <c r="U15">
         <v>1.618884325531321</v>
       </c>
       <c r="V15">
-        <v>49.45173252522031</v>
+        <v>49.451732525220308</v>
       </c>
       <c r="W15">
-        <v>5.382989752382471</v>
+        <v>5.3829897523824712</v>
       </c>
       <c r="X15">
-        <v>43.31512420750428</v>
+        <v>43.315124207504283</v>
       </c>
       <c r="Y15">
-        <v>0.1594959926631843</v>
+        <v>0.15949599266318429</v>
       </c>
       <c r="AA15">
-        <v>0.04386139798237569</v>
+        <v>4.3861397982375691E-2</v>
       </c>
       <c r="AC15">
-        <v>0.02791179871605726</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>2.791179871605726E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
       <c r="C16">
         <v>140</v>
       </c>
       <c r="D16">
-        <v>0.1992428770671449</v>
+        <v>0.19924287706714491</v>
       </c>
       <c r="E16">
-        <v>8.368200836820083</v>
+        <v>8.3682008368200833</v>
       </c>
       <c r="F16">
-        <v>47.50946403666069</v>
+        <v>47.509464036660688</v>
       </c>
       <c r="G16">
-        <v>0.1992428770671449</v>
+        <v>0.19924287706714491</v>
       </c>
       <c r="H16">
-        <v>41.7513448894202</v>
+        <v>41.751344889420203</v>
       </c>
       <c r="I16">
-        <v>0.1992428770671449</v>
+        <v>0.19924287706714491</v>
       </c>
       <c r="J16">
-        <v>1.55409444112373</v>
+        <v>1.5540944411237301</v>
       </c>
       <c r="K16">
-        <v>0.009962143853357242</v>
+        <v>9.9621438533572422E-3</v>
       </c>
       <c r="M16">
-        <v>0.04981071926678621</v>
+        <v>4.9810719266786208E-2</v>
       </c>
       <c r="N16">
         <v>0.1593943016537159</v>
       </c>
       <c r="U16">
-        <v>1.723037651563497</v>
+        <v>1.7230376515634971</v>
       </c>
       <c r="V16">
-        <v>14.22702616464582</v>
+        <v>14.227026164645819</v>
       </c>
       <c r="W16">
-        <v>0.4586790044671347</v>
+        <v>0.45867900446713472</v>
       </c>
       <c r="X16">
-        <v>81.64486279514996</v>
+        <v>81.644862795149962</v>
       </c>
       <c r="Y16">
-        <v>1.208519463943842</v>
+        <v>1.2085194639438419</v>
       </c>
       <c r="Z16">
-        <v>0.01196553924696873</v>
+        <v>1.1965539246968729E-2</v>
       </c>
       <c r="AA16">
-        <v>0.3390236119974473</v>
+        <v>0.33902361199744729</v>
       </c>
       <c r="AC16">
-        <v>0.311104020421187</v>
+        <v>0.31110402042118701</v>
       </c>
       <c r="AD16">
-        <v>0.07578174856413529</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>7.578174856413529E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
       </c>
       <c r="C17">
         <v>141</v>
       </c>
       <c r="D17">
-        <v>0.6272401433691757</v>
+        <v>0.62724014336917566</v>
       </c>
       <c r="E17">
-        <v>8.532457188371168</v>
+        <v>8.5324571883711684</v>
       </c>
       <c r="F17">
-        <v>48.60613301473516</v>
+        <v>48.606133014735157</v>
       </c>
       <c r="G17">
-        <v>0.5376344086021506</v>
+        <v>0.53763440860215062</v>
       </c>
       <c r="H17">
-        <v>38.95858223815213</v>
+        <v>38.958582238152133</v>
       </c>
       <c r="I17">
-        <v>0.2588610115491836</v>
+        <v>0.25886101154918362</v>
       </c>
       <c r="J17">
-        <v>2.200318598168061</v>
+        <v>2.2003185981680611</v>
       </c>
       <c r="K17">
-        <v>0.02986857825567503</v>
+        <v>2.986857825567503E-2</v>
       </c>
       <c r="M17">
-        <v>0.09956192751891675</v>
+        <v>9.9561927518916751E-2</v>
       </c>
       <c r="N17">
         <v>0.1393866985264835</v>
       </c>
       <c r="O17">
-        <v>0.009956192751891677</v>
+        <v>9.9561927518916765E-3</v>
       </c>
       <c r="U17">
         <v>1.563684231521002</v>
       </c>
       <c r="V17">
-        <v>17.41194303721728</v>
+        <v>17.411943037217281</v>
       </c>
       <c r="W17">
         <v>0.4707008656109139</v>
       </c>
       <c r="X17">
-        <v>78.52726474929196</v>
+        <v>78.527264749291959</v>
       </c>
       <c r="Y17">
         <v>1.623519087319</v>
       </c>
       <c r="Z17">
-        <v>0.04387889425186486</v>
+        <v>4.3878894251864857E-2</v>
       </c>
       <c r="AA17">
-        <v>0.307152259763054</v>
+        <v>0.30715225976305399</v>
       </c>
       <c r="AC17">
-        <v>0.003988990386533169</v>
+        <v>3.9889903865331687E-3</v>
       </c>
       <c r="AD17">
-        <v>0.04786788463839802</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>4.7867884638398021E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18">
         <v>142</v>
@@ -1437,349 +1517,329 @@
         <v>0.5778043434947201</v>
       </c>
       <c r="E18">
-        <v>7.511456465431361</v>
+        <v>7.5114564654313609</v>
       </c>
       <c r="F18">
-        <v>45.26798166965531</v>
+        <v>45.267981669655313</v>
       </c>
       <c r="G18">
-        <v>0.2191671647738593</v>
+        <v>0.21916716477385931</v>
       </c>
       <c r="H18">
-        <v>43.6640765092648</v>
+        <v>43.664076509264802</v>
       </c>
       <c r="I18">
-        <v>0.2092050209205021</v>
+        <v>0.20920502092050211</v>
       </c>
       <c r="J18">
-        <v>2.012353058378163</v>
+        <v>2.0123530583781628</v>
       </c>
       <c r="M18">
-        <v>0.08965929468021519</v>
+        <v>8.965929468021519E-2</v>
       </c>
       <c r="N18">
-        <v>0.4482964734010759</v>
+        <v>0.44829647340107592</v>
       </c>
       <c r="U18">
         <v>1.732258322024427</v>
       </c>
       <c r="V18">
-        <v>15.10736808493654</v>
+        <v>15.107368084936541</v>
       </c>
       <c r="W18">
-        <v>0.4350602698171949</v>
+        <v>0.43506026981719492</v>
       </c>
       <c r="X18">
-        <v>80.65378781831245</v>
+        <v>80.653787818312452</v>
       </c>
       <c r="Y18">
-        <v>1.281232537718528</v>
+        <v>1.2812325377185281</v>
       </c>
       <c r="Z18">
-        <v>0.0638620579548176</v>
+        <v>6.38620579548176E-2</v>
       </c>
       <c r="AA18">
-        <v>0.4390516484393709</v>
+        <v>0.43905164843937089</v>
       </c>
       <c r="AC18">
-        <v>0.2314999600862138</v>
+        <v>0.23149996008621379</v>
       </c>
       <c r="AD18">
-        <v>0.05587930071046539</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>5.5879300710465388E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
         <v>143</v>
       </c>
       <c r="D19">
-        <v>0.3688565447113947</v>
+        <v>0.36885654471139467</v>
       </c>
       <c r="E19">
-        <v>9.929219419798624</v>
+        <v>9.9292194197986241</v>
       </c>
       <c r="F19">
-        <v>48.07097996211744</v>
+        <v>48.070979962117441</v>
       </c>
       <c r="G19">
         <v>0.119629149636128</v>
       </c>
       <c r="H19">
-        <v>38.84956634433257</v>
+        <v>38.849566344332572</v>
       </c>
       <c r="I19">
-        <v>0.01993819160602133</v>
+        <v>1.9938191606021331E-2</v>
       </c>
       <c r="J19">
-        <v>2.282922938889443</v>
+        <v>2.2829229388894432</v>
       </c>
       <c r="K19">
-        <v>0.01993819160602133</v>
+        <v>1.9938191606021331E-2</v>
       </c>
       <c r="M19">
-        <v>0.04984547901505334</v>
+        <v>4.9845479015053339E-2</v>
       </c>
       <c r="N19">
-        <v>0.2891037782873094</v>
+        <v>0.28910377828730938</v>
       </c>
       <c r="U19">
-        <v>2.330314033757631</v>
+        <v>2.3303140337576309</v>
       </c>
       <c r="V19">
-        <v>16.98256254738438</v>
+        <v>16.982562547384379</v>
       </c>
       <c r="X19">
-        <v>78.3967120226647</v>
+        <v>78.396712022664701</v>
       </c>
       <c r="Y19">
-        <v>1.412553369777742</v>
+        <v>1.4125533697777419</v>
       </c>
       <c r="Z19">
-        <v>0.039902637564343</v>
+        <v>3.9902637564343001E-2</v>
       </c>
       <c r="AA19">
-        <v>0.5666174534136706</v>
+        <v>0.56661745341367065</v>
       </c>
       <c r="AC19">
-        <v>0.2633574079246638</v>
+        <v>0.26335740792466378</v>
       </c>
       <c r="AD19">
-        <v>0.007980527512868599</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>7.9805275128685994E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
       <c r="C20">
         <v>144</v>
       </c>
       <c r="D20">
-        <v>0.6686626746506986</v>
+        <v>0.66866267465069862</v>
       </c>
       <c r="E20">
-        <v>10.80838323353293</v>
+        <v>10.808383233532931</v>
       </c>
       <c r="F20">
-        <v>45.00998003992016</v>
+        <v>45.009980039920158</v>
       </c>
       <c r="G20">
-        <v>0.3992015968063872</v>
+        <v>0.39920159680638723</v>
       </c>
       <c r="H20">
-        <v>40.86826347305389</v>
+        <v>40.868263473053887</v>
       </c>
       <c r="I20">
-        <v>0.03992015968063872</v>
+        <v>3.9920159680638723E-2</v>
       </c>
       <c r="J20">
-        <v>1.936127744510978</v>
+        <v>1.9361277445109779</v>
       </c>
       <c r="M20">
-        <v>0.09980039920159679</v>
+        <v>9.9800399201596793E-2</v>
       </c>
       <c r="N20">
-        <v>0.1696606786427146</v>
+        <v>0.16966067864271461</v>
       </c>
       <c r="T20">
-        <v>0.01195790816326531</v>
+        <v>1.1957908163265311E-2</v>
       </c>
       <c r="U20">
-        <v>4.627710459183673</v>
+        <v>4.6277104591836729</v>
       </c>
       <c r="V20">
-        <v>24.45392219387755</v>
+        <v>24.453922193877549</v>
       </c>
       <c r="W20">
-        <v>0.08769132653061225</v>
+        <v>8.7691326530612249E-2</v>
       </c>
       <c r="X20">
-        <v>69.77439413265306</v>
+        <v>69.774394132653057</v>
       </c>
       <c r="Y20">
-        <v>0.5420918367346939</v>
+        <v>0.54209183673469385</v>
       </c>
       <c r="Z20">
-        <v>0.01594387755102041</v>
+        <v>1.5943877551020409E-2</v>
       </c>
       <c r="AA20">
         <v>0.1674107142857143</v>
       </c>
       <c r="AC20">
-        <v>0.2710459183673469</v>
+        <v>0.27104591836734693</v>
       </c>
       <c r="AD20">
-        <v>0.04783163265306122</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>4.7831632653061222E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
       </c>
       <c r="C21">
         <v>145</v>
       </c>
       <c r="D21">
-        <v>0.1497304851267718</v>
+        <v>0.14973048512677181</v>
       </c>
       <c r="E21">
-        <v>8.614493910960272</v>
+        <v>8.6144939109602721</v>
       </c>
       <c r="F21">
         <v>47.43461768816131</v>
       </c>
       <c r="G21">
-        <v>0.1996406468356957</v>
+        <v>0.19964064683569571</v>
       </c>
       <c r="H21">
         <v>41.93451786783789</v>
       </c>
       <c r="I21">
-        <v>0.03992812936713915</v>
+        <v>3.9928129367139152E-2</v>
       </c>
       <c r="J21">
-        <v>1.487322818925933</v>
+        <v>1.4873228189259331</v>
       </c>
       <c r="M21">
-        <v>0.03992812936713915</v>
+        <v>3.9928129367139152E-2</v>
       </c>
       <c r="N21">
-        <v>0.09982032341784787</v>
+        <v>9.982032341784787E-2</v>
       </c>
       <c r="U21">
-        <v>3.011087181941453</v>
+        <v>3.0110871819414529</v>
       </c>
       <c r="V21">
-        <v>31.24351918321768</v>
+        <v>31.243519183217678</v>
       </c>
       <c r="W21">
-        <v>0.01994097471484406</v>
+        <v>1.9940974714844059E-2</v>
       </c>
       <c r="X21">
-        <v>63.87094201164552</v>
+        <v>63.870942011645518</v>
       </c>
       <c r="Y21">
-        <v>1.028954295285954</v>
+        <v>1.0289542952859541</v>
       </c>
       <c r="Z21">
-        <v>0.01196458482890644</v>
+        <v>1.196458482890644E-2</v>
       </c>
       <c r="AA21">
-        <v>0.4067958841828189</v>
+        <v>0.40679588418281892</v>
       </c>
       <c r="AC21">
-        <v>0.4028076892398501</v>
+        <v>0.40280768923985011</v>
       </c>
       <c r="AD21">
-        <v>0.003988194942968812</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>3.988194942968812E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22">
         <v>146</v>
       </c>
       <c r="D22">
-        <v>0.6675966520526105</v>
+        <v>0.66759665205261054</v>
       </c>
       <c r="E22">
-        <v>8.778397768035074</v>
+        <v>8.7783977680350738</v>
       </c>
       <c r="F22">
-        <v>48.45555998405739</v>
+        <v>48.455559984057388</v>
       </c>
       <c r="G22">
         <v>0.1195695496213631</v>
       </c>
       <c r="H22">
-        <v>37.65444400159426</v>
+        <v>37.654444001594257</v>
       </c>
       <c r="I22">
-        <v>0.01992825827022718</v>
+        <v>1.9928258270227182E-2</v>
       </c>
       <c r="J22">
-        <v>3.746512554802711</v>
+        <v>3.7465125548027109</v>
       </c>
       <c r="M22">
-        <v>0.08967716221602232</v>
+        <v>8.9677162216022316E-2</v>
       </c>
       <c r="N22">
-        <v>0.4583499402152252</v>
+        <v>0.45834994021522518</v>
       </c>
       <c r="O22">
-        <v>0.009964129135113591</v>
+        <v>9.9641291351135908E-3</v>
       </c>
       <c r="U22">
-        <v>2.107616158390548</v>
+        <v>2.1076161583905479</v>
       </c>
       <c r="V22">
-        <v>16.72121986268561</v>
+        <v>16.721219862685611</v>
       </c>
       <c r="W22">
-        <v>0.355261057001437</v>
+        <v>0.35526105700143701</v>
       </c>
       <c r="X22">
-        <v>78.72824524988025</v>
+        <v>78.728245249880246</v>
       </c>
       <c r="Y22">
         <v>1.421044228005748</v>
       </c>
       <c r="Z22">
-        <v>0.0359252754271116</v>
+        <v>3.5925275427111603E-2</v>
       </c>
       <c r="AA22">
-        <v>0.2714354143381766</v>
+        <v>0.27143541433817658</v>
       </c>
       <c r="AC22">
-        <v>0.2913939006865719</v>
+        <v>0.29139390068657189</v>
       </c>
       <c r="AD22">
-        <v>0.06785885358454415</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>6.7858853584544146E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
       <c r="C23">
         <v>147</v>
@@ -1788,22 +1848,22 @@
         <v>1.353907416625187</v>
       </c>
       <c r="E23">
-        <v>7.824788451966152</v>
+        <v>7.8247884519661524</v>
       </c>
       <c r="F23">
-        <v>44.02190144350423</v>
+        <v>44.021901443504227</v>
       </c>
       <c r="G23">
-        <v>0.8163265306122449</v>
+        <v>0.81632653061224492</v>
       </c>
       <c r="H23">
-        <v>39.54206072672972</v>
+        <v>39.542060726729723</v>
       </c>
       <c r="I23">
-        <v>0.1294176207068193</v>
+        <v>0.12941762070681931</v>
       </c>
       <c r="J23">
-        <v>5.087108013937282</v>
+        <v>5.0871080139372822</v>
       </c>
       <c r="M23">
         <v>0.1095072175211548</v>
@@ -1815,22 +1875,22 @@
         <v>2.364999601180505</v>
       </c>
       <c r="V23">
-        <v>17.95485363324559</v>
+        <v>17.954853633245591</v>
       </c>
       <c r="W23">
-        <v>0.4945361729281327</v>
+        <v>0.49453617292813268</v>
       </c>
       <c r="X23">
-        <v>77.03996171332855</v>
+        <v>77.039961713328552</v>
       </c>
       <c r="Y23">
         <v>1.34402169578049</v>
       </c>
       <c r="Z23">
-        <v>0.05583472920156338</v>
+        <v>5.5834729201563377E-2</v>
       </c>
       <c r="AA23">
-        <v>0.2871500358937545</v>
+        <v>0.28715003589375449</v>
       </c>
       <c r="AC23">
         <v>0.319055595437505</v>
@@ -1839,49 +1899,45 @@
         <v>0.1395868230039084</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
       <c r="C24">
         <v>148</v>
       </c>
       <c r="D24">
-        <v>0.6088431979239445</v>
+        <v>0.60884319792394448</v>
       </c>
       <c r="E24">
-        <v>9.092723824733007</v>
+        <v>9.0927238247330067</v>
       </c>
       <c r="F24">
-        <v>45.69318295239046</v>
+        <v>45.693182952390458</v>
       </c>
       <c r="G24">
-        <v>0.7585587383970457</v>
+        <v>0.75855873839704568</v>
       </c>
       <c r="H24">
-        <v>39.84429583790797</v>
+        <v>39.844295837907971</v>
       </c>
       <c r="I24">
-        <v>0.4790897295139236</v>
+        <v>0.47908972951392359</v>
       </c>
       <c r="J24">
-        <v>3.144026349935123</v>
+        <v>3.1440263499351229</v>
       </c>
       <c r="M24">
         <v>0.1197724323784809</v>
       </c>
       <c r="N24">
-        <v>0.2595069368200419</v>
+        <v>0.25950693682004189</v>
       </c>
       <c r="T24">
-        <v>0.02393585191686281</v>
+        <v>2.3935851916862809E-2</v>
       </c>
       <c r="U24">
         <v>2.776558822356086</v>
@@ -1890,115 +1946,107 @@
         <v>20.06622252363665</v>
       </c>
       <c r="W24">
-        <v>0.3590377787529421</v>
+        <v>0.35903777875294213</v>
       </c>
       <c r="X24">
-        <v>75.18251087086608</v>
+        <v>75.182510870866082</v>
       </c>
       <c r="Y24">
-        <v>1.041209558383532</v>
+        <v>1.0412095583835319</v>
       </c>
       <c r="Z24">
-        <v>0.04388239518091515</v>
+        <v>4.3882395180915149E-2</v>
       </c>
       <c r="AA24">
-        <v>0.06781824709777795</v>
+        <v>6.7818247097777951E-2</v>
       </c>
       <c r="AC24">
         <v>0.374995013364184</v>
       </c>
       <c r="AD24">
-        <v>0.0638289384449675</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>6.3828938444967495E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
       </c>
       <c r="C25">
         <v>149</v>
       </c>
       <c r="D25">
-        <v>1.425296521479119</v>
+        <v>1.4252965214791189</v>
       </c>
       <c r="E25">
-        <v>9.578391308681351</v>
+        <v>9.5783913086813506</v>
       </c>
       <c r="F25">
-        <v>43.18748131167148</v>
+        <v>43.187481311671483</v>
       </c>
       <c r="G25">
-        <v>0.5282567527160371</v>
+        <v>0.52825675271603711</v>
       </c>
       <c r="H25">
-        <v>41.7123492474833</v>
+        <v>41.712349247483303</v>
       </c>
       <c r="I25">
         <v>0.1096381939599322</v>
       </c>
       <c r="J25">
-        <v>2.990132562543606</v>
+        <v>2.9901325625436059</v>
       </c>
       <c r="K25">
-        <v>0.009967108541812019</v>
+        <v>9.9671085418120194E-3</v>
       </c>
       <c r="L25">
-        <v>0.01993421708362404</v>
+        <v>1.9934217083624039E-2</v>
       </c>
       <c r="M25">
-        <v>0.0996710854181202</v>
+        <v>9.9671085418120198E-2</v>
       </c>
       <c r="N25">
-        <v>0.3189474733379846</v>
+        <v>0.31894747333798462</v>
       </c>
       <c r="O25">
-        <v>0.01993421708362404</v>
+        <v>1.9934217083624039E-2</v>
       </c>
       <c r="U25">
-        <v>2.592119955335779</v>
+        <v>2.5921199553357792</v>
       </c>
       <c r="V25">
-        <v>17.46690062210879</v>
+        <v>17.466900622108788</v>
       </c>
       <c r="W25">
-        <v>0.319030148349019</v>
+        <v>0.31903014834901899</v>
       </c>
       <c r="X25">
-        <v>77.81942893603446</v>
+        <v>77.819428936034456</v>
       </c>
       <c r="Y25">
         <v>1.164460041473919</v>
       </c>
       <c r="Z25">
-        <v>0.05981815281544105</v>
+        <v>5.9818152815441047E-2</v>
       </c>
       <c r="AA25">
-        <v>0.2113574732812251</v>
+        <v>0.21135747328122509</v>
       </c>
       <c r="AC25">
-        <v>0.2990907640772053</v>
+        <v>0.29909076407720531</v>
       </c>
       <c r="AD25">
-        <v>0.06779390652416654</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+        <v>6.7793906524166545E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
       </c>
       <c r="C26">
         <v>150</v>
@@ -2007,37 +2055,37 @@
         <v>1.485987832851301</v>
       </c>
       <c r="E26">
-        <v>8.886007778996708</v>
+        <v>8.8860077789967082</v>
       </c>
       <c r="F26">
-        <v>44.19068515009474</v>
+        <v>44.190685150094737</v>
       </c>
       <c r="G26">
-        <v>0.6582227984442006</v>
+        <v>0.65822279844420062</v>
       </c>
       <c r="H26">
-        <v>41.10900568465144</v>
+        <v>41.109005684651443</v>
       </c>
       <c r="I26">
-        <v>0.009973072703700009</v>
+        <v>9.9730727037000092E-3</v>
       </c>
       <c r="J26">
-        <v>3.121571756258103</v>
+        <v>3.1215717562581031</v>
       </c>
       <c r="K26">
-        <v>0.009973072703700009</v>
+        <v>9.9730727037000092E-3</v>
       </c>
       <c r="M26">
         <v>0.1296499451481001</v>
       </c>
       <c r="N26">
-        <v>0.3989229081480004</v>
+        <v>0.39892290814800041</v>
       </c>
       <c r="U26">
-        <v>2.867512163994576</v>
+        <v>2.8675121639945762</v>
       </c>
       <c r="V26">
-        <v>19.89311637552844</v>
+        <v>19.893116375528439</v>
       </c>
       <c r="W26">
         <v>0.4307250538406317</v>
@@ -2046,31 +2094,27 @@
         <v>74.63109196777539</v>
       </c>
       <c r="Y26">
-        <v>1.088777219430486</v>
+        <v>1.0887772194304861</v>
       </c>
       <c r="Z26">
-        <v>0.05184653425859456</v>
+        <v>5.1846534258594562E-2</v>
       </c>
       <c r="AA26">
-        <v>0.5344181223578209</v>
+        <v>0.53441812235782093</v>
       </c>
       <c r="AC26">
-        <v>0.3908431044109436</v>
+        <v>0.39084310441094361</v>
       </c>
       <c r="AD26">
         <v>0.1116694584031268</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SA-Cycle_2</t>
-        </is>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27">
         <v>151</v>
@@ -2079,541 +2123,509 @@
         <v>0.9561752988047808</v>
       </c>
       <c r="E27">
-        <v>9.252988047808765</v>
+        <v>9.2529880478087652</v>
       </c>
       <c r="F27">
-        <v>45.51792828685259</v>
+        <v>45.517928286852587</v>
       </c>
       <c r="G27">
-        <v>0.1294820717131474</v>
+        <v>0.12948207171314741</v>
       </c>
       <c r="H27">
-        <v>39.73107569721115</v>
+        <v>39.731075697211153</v>
       </c>
       <c r="I27">
-        <v>0.1792828685258964</v>
+        <v>0.17928286852589639</v>
       </c>
       <c r="J27">
-        <v>3.844621513944223</v>
+        <v>3.8446215139442228</v>
       </c>
       <c r="M27">
-        <v>0.099601593625498</v>
+        <v>9.9601593625498003E-2</v>
       </c>
       <c r="N27">
-        <v>0.2888446215139442</v>
+        <v>0.28884462151394419</v>
       </c>
       <c r="U27">
-        <v>2.398435629339931</v>
+        <v>2.3984356293399309</v>
       </c>
       <c r="V27">
-        <v>17.12028094820018</v>
+        <v>17.120280948200179</v>
       </c>
       <c r="W27">
-        <v>0.5108149094101684</v>
+        <v>0.51081490941016838</v>
       </c>
       <c r="X27">
-        <v>78.87301460611381</v>
+        <v>78.873014606113813</v>
       </c>
       <c r="Y27">
-        <v>0.4349908212945965</v>
+        <v>0.43499082129459649</v>
       </c>
       <c r="Z27">
-        <v>0.06784260515603799</v>
+        <v>6.7842605156037988E-2</v>
       </c>
       <c r="AC27">
-        <v>0.470907494612499</v>
+        <v>0.47090749461249898</v>
       </c>
       <c r="AD27">
         <v>0.1237129858727752</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="C28">
         <v>177</v>
       </c>
       <c r="D28">
-        <v>0.6875934230194319</v>
+        <v>0.68759342301943194</v>
       </c>
       <c r="E28">
         <v>11.33034379671151</v>
       </c>
       <c r="F28">
-        <v>41.11609367214749</v>
+        <v>41.116093672147493</v>
       </c>
       <c r="G28">
-        <v>0.7075236671649228</v>
+        <v>0.70752366716492276</v>
       </c>
       <c r="H28">
         <v>42.83009466865969</v>
       </c>
       <c r="I28">
-        <v>0.04982561036372695</v>
+        <v>4.9825610363726951E-2</v>
       </c>
       <c r="J28">
         <v>2.919780767314399</v>
       </c>
       <c r="K28">
-        <v>0.009965122072745391</v>
+        <v>9.9651220727453912E-3</v>
       </c>
       <c r="N28">
         <v>0.3487792725460887</v>
       </c>
       <c r="U28">
-        <v>3.638104356151269</v>
+        <v>3.6381043561512691</v>
       </c>
       <c r="V28">
         <v>12.63762565820967</v>
       </c>
       <c r="W28">
-        <v>0.4587521940322323</v>
+        <v>0.45875219403223227</v>
       </c>
       <c r="X28">
-        <v>81.68980373384395</v>
+        <v>81.689803733843945</v>
       </c>
       <c r="Y28">
-        <v>1.240625498643689</v>
+        <v>1.2406254986436891</v>
       </c>
       <c r="Z28">
-        <v>0.05983724269985639</v>
+        <v>5.9837242699856387E-2</v>
       </c>
       <c r="AA28">
-        <v>0.1515876815063029</v>
+        <v>0.15158768150630289</v>
       </c>
       <c r="AC28">
-        <v>0.05185894367320887</v>
+        <v>5.1858943673208868E-2</v>
       </c>
       <c r="AD28">
-        <v>0.07180469123982766</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>7.1804691239827662E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
       </c>
       <c r="C29">
         <v>178</v>
       </c>
       <c r="D29">
-        <v>0.1891676622859418</v>
+        <v>0.18916766228594181</v>
       </c>
       <c r="E29">
-        <v>14.52608522500996</v>
+        <v>14.526085225009959</v>
       </c>
       <c r="F29">
-        <v>40.11350059737156</v>
+        <v>40.113500597371562</v>
       </c>
       <c r="G29">
-        <v>0.5973715651135006</v>
+        <v>0.59737156511350065</v>
       </c>
       <c r="H29">
-        <v>41.46754281162883</v>
+        <v>41.467542811628832</v>
       </c>
       <c r="I29">
-        <v>0.04978096375945838</v>
+        <v>4.9780963759458383E-2</v>
       </c>
       <c r="J29">
-        <v>2.469135802469136</v>
+        <v>2.4691358024691361</v>
       </c>
       <c r="N29">
         <v>0.5874153723616089</v>
       </c>
       <c r="U29">
-        <v>3.014354066985646</v>
+        <v>3.0143540669856459</v>
       </c>
       <c r="V29">
-        <v>10.13157894736842</v>
+        <v>10.131578947368419</v>
       </c>
       <c r="W29">
-        <v>0.9130781499202552</v>
+        <v>0.91307814992025516</v>
       </c>
       <c r="X29">
-        <v>84.41387559808614</v>
+        <v>84.413875598086136</v>
       </c>
       <c r="Y29">
-        <v>1.084529505582137</v>
+        <v>1.0845295055821369</v>
       </c>
       <c r="Z29">
-        <v>0.04784688995215311</v>
+        <v>4.784688995215311E-2</v>
       </c>
       <c r="AA29">
         <v>0.1674641148325359</v>
       </c>
       <c r="AC29">
-        <v>0.03987240829346093</v>
+        <v>3.9872408293460927E-2</v>
       </c>
       <c r="AD29">
-        <v>0.1874003189792663</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>0.18740031897926629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
       </c>
       <c r="C30">
         <v>179</v>
       </c>
       <c r="D30">
-        <v>0.3288490284005979</v>
+        <v>0.32884902840059788</v>
       </c>
       <c r="E30">
-        <v>17.02042850024913</v>
+        <v>17.020428500249128</v>
       </c>
       <c r="F30">
-        <v>36.89088191330344</v>
+        <v>36.890881913303438</v>
       </c>
       <c r="G30">
-        <v>0.009965122072745391</v>
+        <v>9.9651220727453912E-3</v>
       </c>
       <c r="H30">
-        <v>41.81365221723966</v>
+        <v>41.813652217239657</v>
       </c>
       <c r="I30">
-        <v>0.08968609865470852</v>
+        <v>8.9686098654708515E-2</v>
       </c>
       <c r="J30">
-        <v>3.238664673642252</v>
+        <v>3.2386646736422522</v>
       </c>
       <c r="K30">
-        <v>0.009965122072745391</v>
+        <v>9.9651220727453912E-3</v>
       </c>
       <c r="M30">
-        <v>0.02989536621823618</v>
+        <v>2.9895366218236179E-2</v>
       </c>
       <c r="N30">
-        <v>0.5680119581464873</v>
+        <v>0.56801195814648731</v>
       </c>
       <c r="U30">
-        <v>5.087586289453733</v>
+        <v>5.0875862894537329</v>
       </c>
       <c r="V30">
-        <v>12.19823630341966</v>
+        <v>12.198236303419661</v>
       </c>
       <c r="W30">
-        <v>0.7581501137225171</v>
+        <v>0.75815011372251706</v>
       </c>
       <c r="X30">
-        <v>80.27213598818882</v>
+        <v>80.272135988188822</v>
       </c>
       <c r="Y30">
-        <v>1.08535174175013</v>
+        <v>1.0853517417501299</v>
       </c>
       <c r="Z30">
-        <v>0.1436494952316348</v>
+        <v>0.14364949523163481</v>
       </c>
       <c r="AA30">
         <v>0.2234547703603208</v>
       </c>
       <c r="AC30">
-        <v>0.0279318462950401</v>
+        <v>2.79318462950401E-2</v>
       </c>
       <c r="AD30">
-        <v>0.2035034515781493</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>0.20350345157814931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
       </c>
       <c r="C31">
         <v>180</v>
       </c>
       <c r="D31">
-        <v>1.197843881014174</v>
+        <v>1.1978438810141741</v>
       </c>
       <c r="E31">
         <v>11.18985825514075</v>
       </c>
       <c r="F31">
-        <v>42.10421241764823</v>
+        <v>42.104212417648228</v>
       </c>
       <c r="G31">
-        <v>0.6288680375324416</v>
+        <v>0.62886803753244158</v>
       </c>
       <c r="H31">
-        <v>40.60690756638051</v>
+        <v>40.606907566380507</v>
       </c>
       <c r="I31">
-        <v>0.01996406468356957</v>
+        <v>1.9964064683569569E-2</v>
       </c>
       <c r="J31">
         <v>3.883010580954283</v>
       </c>
       <c r="N31">
-        <v>0.3693351966460371</v>
+        <v>0.36933519664603709</v>
       </c>
       <c r="T31">
-        <v>0.003989945337748873</v>
+        <v>3.9899453377488731E-3</v>
       </c>
       <c r="U31">
-        <v>4.404899652874756</v>
+        <v>4.4048996528747564</v>
       </c>
       <c r="V31">
         <v>18.43753740573754</v>
       </c>
       <c r="W31">
-        <v>0.2912660096556677</v>
+        <v>0.29126600965566768</v>
       </c>
       <c r="X31">
-        <v>74.93915333359934</v>
+        <v>74.939153333599336</v>
       </c>
       <c r="Y31">
         <v>1.615927861788294</v>
       </c>
       <c r="Z31">
-        <v>0.08378885209272632</v>
+        <v>8.3788852092726324E-2</v>
       </c>
       <c r="AA31">
-        <v>0.03989945337748873</v>
+        <v>3.9899453377488729E-2</v>
       </c>
       <c r="AC31">
-        <v>0.05186928939073535</v>
+        <v>5.1869289390735353E-2</v>
       </c>
       <c r="AD31">
-        <v>0.1316681961457128</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>0.13166819614571279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
       </c>
       <c r="C32">
         <v>181</v>
       </c>
       <c r="D32">
-        <v>0.5580468360737419</v>
+        <v>0.55804683607374195</v>
       </c>
       <c r="E32">
-        <v>13.24364723467862</v>
+        <v>13.243647234678621</v>
       </c>
       <c r="F32">
-        <v>41.58445440956652</v>
+        <v>41.584454409566519</v>
       </c>
       <c r="G32">
-        <v>0.2491280518186348</v>
+        <v>0.24912805181863479</v>
       </c>
       <c r="H32">
-        <v>41.56452416542103</v>
+        <v>41.564524165421027</v>
       </c>
       <c r="I32">
-        <v>0.01993024414549078</v>
+        <v>1.9930244145490779E-2</v>
       </c>
       <c r="J32">
         <v>2.590931738913802</v>
       </c>
       <c r="K32">
-        <v>0.01993024414549078</v>
+        <v>1.9930244145490779E-2</v>
       </c>
       <c r="N32">
-        <v>0.1694070752366716</v>
+        <v>0.16940707523667159</v>
       </c>
       <c r="U32">
-        <v>5.878838570916478</v>
+        <v>5.8788385709164777</v>
       </c>
       <c r="V32">
         <v>18.28971999840682</v>
       </c>
       <c r="W32">
-        <v>1.007687099215358</v>
+        <v>1.0076870992153579</v>
       </c>
       <c r="X32">
         <v>73.78818656151671</v>
       </c>
       <c r="Y32">
-        <v>0.7846417333811287</v>
+        <v>0.78464173338112875</v>
       </c>
       <c r="Z32">
-        <v>0.0876249651491616</v>
+        <v>8.7624965149161599E-2</v>
       </c>
       <c r="AA32">
-        <v>0.0597442944198829</v>
+        <v>5.9744294419882903E-2</v>
       </c>
       <c r="AD32">
         <v>0.1035567769944637</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
       </c>
       <c r="C33">
         <v>182</v>
       </c>
       <c r="E33">
-        <v>12.13693981435273</v>
+        <v>12.136939814352729</v>
       </c>
       <c r="F33">
         <v>42.85856871943308</v>
       </c>
       <c r="G33">
-        <v>0.9981036031540073</v>
+        <v>0.99810360315400726</v>
       </c>
       <c r="H33">
-        <v>41.29154606248129</v>
+        <v>41.291546062481288</v>
       </c>
       <c r="I33">
-        <v>0.05988621618924045</v>
+        <v>5.9886216189240449E-2</v>
       </c>
       <c r="J33">
         <v>2.265695179159597</v>
       </c>
       <c r="K33">
-        <v>0.009981036031540073</v>
+        <v>9.9810360315400731E-3</v>
       </c>
       <c r="N33">
-        <v>0.3792793691985228</v>
+        <v>0.37927936919852279</v>
       </c>
       <c r="U33">
-        <v>4.693054279666095</v>
+        <v>4.6930542796660948</v>
       </c>
       <c r="V33">
-        <v>16.49958062068139</v>
+        <v>16.499580620681389</v>
       </c>
       <c r="W33">
-        <v>1.010504453408955</v>
+        <v>1.0105044534089549</v>
       </c>
       <c r="X33">
-        <v>77.01801334025642</v>
+        <v>77.018013340256417</v>
       </c>
       <c r="Y33">
         <v>0.5751487798058873</v>
       </c>
       <c r="Z33">
-        <v>0.05591724248112793</v>
+        <v>5.5917242481127928E-2</v>
       </c>
       <c r="AA33">
-        <v>0.01198226624595598</v>
+        <v>1.198226624595598E-2</v>
       </c>
       <c r="AC33">
-        <v>0.04393497623517195</v>
+        <v>4.3934976235171952E-2</v>
       </c>
       <c r="AD33">
-        <v>0.09186404121899588</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>9.1864041218995884E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
       </c>
       <c r="C34">
         <v>183</v>
       </c>
       <c r="D34">
-        <v>0.1493280238924838</v>
+        <v>0.14932802389248381</v>
       </c>
       <c r="E34">
         <v>14.09656545545047</v>
       </c>
       <c r="F34">
-        <v>40.96565455450472</v>
+        <v>40.965654554504717</v>
       </c>
       <c r="G34">
         <v>1.682429069188651</v>
       </c>
       <c r="H34">
-        <v>39.3230462916874</v>
+        <v>39.323046291687398</v>
       </c>
       <c r="I34">
         <v>0.1991040318566451</v>
       </c>
       <c r="J34">
-        <v>3.295171727227476</v>
+        <v>3.2951717272274759</v>
       </c>
       <c r="N34">
-        <v>0.2887008461921354</v>
+        <v>0.28870084619213537</v>
       </c>
       <c r="U34">
-        <v>5.311252992817239</v>
+        <v>5.3112529928172387</v>
       </c>
       <c r="V34">
         <v>20.9976057462091</v>
       </c>
       <c r="W34">
-        <v>1.632083000798085</v>
+        <v>1.6320830007980851</v>
       </c>
       <c r="X34">
-        <v>70.16759776536313</v>
+        <v>70.167597765363126</v>
       </c>
       <c r="Y34">
         <v>1.74780526735834</v>
       </c>
       <c r="Z34">
-        <v>0.05586592178770949</v>
+        <v>5.5865921787709487E-2</v>
       </c>
       <c r="AA34">
-        <v>0.01596169193934557</v>
+        <v>1.596169193934557E-2</v>
       </c>
       <c r="AD34">
-        <v>0.07182761372705507</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>7.1827613727055067E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
       </c>
       <c r="C35">
         <v>184</v>
       </c>
       <c r="E35">
-        <v>14.32135728542914</v>
+        <v>14.321357285429141</v>
       </c>
       <c r="F35">
         <v>41.06786427145709</v>
@@ -2622,58 +2634,54 @@
         <v>1.996007984031936</v>
       </c>
       <c r="H35">
-        <v>39.20159680638722</v>
+        <v>39.201596806387222</v>
       </c>
       <c r="I35">
-        <v>0.08982035928143713</v>
+        <v>8.9820359281437126E-2</v>
       </c>
       <c r="J35">
-        <v>2.884231536926148</v>
+        <v>2.8842315369261482</v>
       </c>
       <c r="K35">
-        <v>0.009980039920159681</v>
+        <v>9.9800399201596807E-3</v>
       </c>
       <c r="N35">
-        <v>0.4291417165668662</v>
+        <v>0.42914171656686623</v>
       </c>
       <c r="U35">
         <v>6.095177310622681</v>
       </c>
       <c r="V35">
-        <v>20.65499222146875</v>
+        <v>20.654992221468749</v>
       </c>
       <c r="W35">
         <v>1.731221827755395</v>
       </c>
       <c r="X35">
-        <v>69.9828473413379</v>
+        <v>69.982847341337902</v>
       </c>
       <c r="Y35">
         <v>1.256531971757948</v>
       </c>
       <c r="Z35">
-        <v>0.05185687502493119</v>
+        <v>5.1856875024931193E-2</v>
       </c>
       <c r="AA35">
-        <v>0.07579081734413019</v>
+        <v>7.5790817344130193E-2</v>
       </c>
       <c r="AC35">
-        <v>0.04387889425186486</v>
+        <v>4.3878894251864857E-2</v>
       </c>
       <c r="AD35">
-        <v>0.1077027404363955</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>0.10770274043639549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
       </c>
       <c r="C36">
         <v>185</v>
@@ -2685,70 +2693,66 @@
         <v>12.90997906489881</v>
       </c>
       <c r="F36">
-        <v>42.66773003688565</v>
+        <v>42.667730036885651</v>
       </c>
       <c r="G36">
-        <v>2.970790549297179</v>
+        <v>2.9707905492971789</v>
       </c>
       <c r="H36">
-        <v>38.9691954939687</v>
+        <v>38.969195493968698</v>
       </c>
       <c r="I36">
-        <v>0.09969095803010668</v>
+        <v>9.9690958030106677E-2</v>
       </c>
       <c r="J36">
-        <v>2.043664639617187</v>
+        <v>2.0436646396171869</v>
       </c>
       <c r="K36">
-        <v>0.03987638321204266</v>
+        <v>3.9876383212042663E-2</v>
       </c>
       <c r="L36">
-        <v>0.01993819160602133</v>
+        <v>1.9938191606021331E-2</v>
       </c>
       <c r="M36">
-        <v>0.009969095803010666</v>
+        <v>9.9690958030106656E-3</v>
       </c>
       <c r="N36">
-        <v>0.14953643704516</v>
+        <v>0.14953643704516001</v>
       </c>
       <c r="U36">
-        <v>3.940336603653186</v>
+        <v>3.9403366036531859</v>
       </c>
       <c r="V36">
-        <v>18.43343702640185</v>
+        <v>18.433437026401851</v>
       </c>
       <c r="W36">
         <v>2.476669059583632</v>
       </c>
       <c r="X36">
-        <v>73.6460078168621</v>
+        <v>73.646007816862095</v>
       </c>
       <c r="Y36">
         <v>1.363962670495334</v>
       </c>
       <c r="Z36">
-        <v>0.02392916965781287</v>
+        <v>2.392916965781287E-2</v>
       </c>
       <c r="AA36">
-        <v>0.02392916965781287</v>
+        <v>2.392916965781287E-2</v>
       </c>
       <c r="AC36">
-        <v>0.04785833931562575</v>
+        <v>4.7858339315625748E-2</v>
       </c>
       <c r="AD36">
-        <v>0.04387014437265694</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SA-Cycle_5</t>
-        </is>
+        <v>4.387014437265694E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
       </c>
       <c r="C37">
         <v>186</v>
@@ -2760,64 +2764,60 @@
         <v>41.38136942675159</v>
       </c>
       <c r="G37">
-        <v>0.7165605095541402</v>
+        <v>0.71656050955414019</v>
       </c>
       <c r="H37">
-        <v>41.47093949044586</v>
+        <v>41.470939490445858</v>
       </c>
       <c r="I37">
-        <v>0.09952229299363058</v>
+        <v>9.9522292993630579E-2</v>
       </c>
       <c r="J37">
         <v>3.51313694267516</v>
       </c>
       <c r="K37">
-        <v>0.01990445859872612</v>
+        <v>1.9904458598726121E-2</v>
       </c>
       <c r="N37">
-        <v>0.4578025477707006</v>
+        <v>0.45780254777070062</v>
       </c>
       <c r="T37">
-        <v>0.02392916965781287</v>
+        <v>2.392916965781287E-2</v>
       </c>
       <c r="U37">
-        <v>3.79277339076334</v>
+        <v>3.7927733907633399</v>
       </c>
       <c r="V37">
         <v>13.16901970168302</v>
       </c>
       <c r="W37">
-        <v>0.5782882667304778</v>
+        <v>0.57828826673047784</v>
       </c>
       <c r="X37">
-        <v>81.0999441652708</v>
+        <v>81.099944165270799</v>
       </c>
       <c r="Y37">
-        <v>0.9372258115976708</v>
+        <v>0.93722581159767082</v>
       </c>
       <c r="Z37">
-        <v>0.1754805774906278</v>
+        <v>0.17548057749062779</v>
       </c>
       <c r="AA37">
-        <v>0.05583472920156338</v>
+        <v>5.5834729201563377E-2</v>
       </c>
       <c r="AC37">
-        <v>0.0319055595437505</v>
+        <v>3.1905559543750503E-2</v>
       </c>
       <c r="AD37">
-        <v>0.1355986280609396</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.13559862806093961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="C38">
         <v>152</v>
@@ -2826,52 +2826,48 @@
         <v>16.26980173358573</v>
       </c>
       <c r="F38">
-        <v>45.01345023413371</v>
+        <v>45.013450234133707</v>
       </c>
       <c r="G38">
-        <v>37.27209325495666</v>
+        <v>37.272093254956658</v>
       </c>
       <c r="H38">
-        <v>1.135797549068447</v>
+        <v>1.1357975490684471</v>
       </c>
       <c r="I38">
-        <v>0.06974195476736077</v>
+        <v>6.9741954767360767E-2</v>
       </c>
       <c r="P38">
-        <v>0.2391152734880941</v>
+        <v>0.23911527348809411</v>
       </c>
       <c r="U38">
-        <v>4.913190979844343</v>
+        <v>4.9131909798443427</v>
       </c>
       <c r="V38">
-        <v>20.45100778287767</v>
+        <v>20.451007782877671</v>
       </c>
       <c r="W38">
-        <v>73.56615446018758</v>
+        <v>73.566154460187576</v>
       </c>
       <c r="X38">
-        <v>0.7144282578327679</v>
+        <v>0.71442825783276787</v>
       </c>
       <c r="Y38">
-        <v>0.09179804430253442</v>
+        <v>9.1798044302534423E-2</v>
       </c>
       <c r="AA38">
         <v>0.1117541408900419</v>
       </c>
       <c r="AC38">
-        <v>0.1516663340650569</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.15166633406505689</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
       <c r="C39">
         <v>153</v>
@@ -2880,40 +2876,40 @@
         <v>14.89489489489489</v>
       </c>
       <c r="F39">
-        <v>46.03603603603604</v>
+        <v>46.036036036036037</v>
       </c>
       <c r="G39">
-        <v>38.11811811811812</v>
+        <v>38.118118118118119</v>
       </c>
       <c r="H39">
-        <v>0.3503503503503503</v>
+        <v>0.35035035035035028</v>
       </c>
       <c r="I39">
         <v>0.3003003003003003</v>
       </c>
       <c r="J39">
-        <v>0.01001001001001001</v>
+        <v>1.001001001001001E-2</v>
       </c>
       <c r="M39">
-        <v>0.04004004004004004</v>
+        <v>4.004004004004004E-2</v>
       </c>
       <c r="Q39">
-        <v>0.2502502502502503</v>
+        <v>0.25025025025025027</v>
       </c>
       <c r="U39">
-        <v>4.582102658258163</v>
+        <v>4.5821026582581634</v>
       </c>
       <c r="V39">
         <v>21.14632394028898</v>
       </c>
       <c r="W39">
-        <v>73.18591841622096</v>
+        <v>73.185918416220957</v>
       </c>
       <c r="X39">
-        <v>0.7264309092360501</v>
+        <v>0.72643090923605014</v>
       </c>
       <c r="Y39">
-        <v>0.07583619382134589</v>
+        <v>7.583619382134589E-2</v>
       </c>
       <c r="AA39">
         <v>0.1037758441765786</v>
@@ -2922,76 +2918,68 @@
         <v>0.1676379021313962</v>
       </c>
       <c r="AI39">
-        <v>0.0119741358665283</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>1.1974135866528301E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>154</v>
       </c>
       <c r="E40">
-        <v>16.42014791125325</v>
+        <v>16.420147911253249</v>
       </c>
       <c r="F40">
-        <v>45.79252448530882</v>
+        <v>45.792524485308817</v>
       </c>
       <c r="G40">
-        <v>36.65800519688187</v>
+        <v>36.658005196881867</v>
       </c>
       <c r="H40">
-        <v>0.6995802518488907</v>
+        <v>0.69958025184889072</v>
       </c>
       <c r="I40">
-        <v>0.06995802518488907</v>
+        <v>6.9958025184889069E-2</v>
       </c>
       <c r="M40">
-        <v>0.1499100539676194</v>
+        <v>0.14991005396761939</v>
       </c>
       <c r="R40">
-        <v>0.2098740755546672</v>
+        <v>0.20987407555466719</v>
       </c>
       <c r="U40">
-        <v>4.232994215040894</v>
+        <v>4.2329942150408941</v>
       </c>
       <c r="V40">
-        <v>21.1410333133852</v>
+        <v>21.141033313385201</v>
       </c>
       <c r="W40">
-        <v>73.75224416517055</v>
+        <v>73.752244165170552</v>
       </c>
       <c r="X40">
-        <v>0.4508278475962498</v>
+        <v>0.45082784759624978</v>
       </c>
       <c r="Y40">
-        <v>0.1555954518252543</v>
+        <v>0.15559545182525431</v>
       </c>
       <c r="AA40">
-        <v>0.0239377618192699</v>
+        <v>2.39377618192699E-2</v>
       </c>
       <c r="AC40">
-        <v>0.2433672451625773</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.24336724516257729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
       </c>
       <c r="C41">
         <v>155</v>
@@ -3000,55 +2988,51 @@
         <v>12.75596843472181</v>
       </c>
       <c r="F41">
-        <v>47.54769753271402</v>
+        <v>47.547697532714018</v>
       </c>
       <c r="G41">
-        <v>37.40885026470882</v>
+        <v>37.408850264708818</v>
       </c>
       <c r="H41">
         <v>2.107681550294676</v>
       </c>
       <c r="I41">
-        <v>0.0399560483468185</v>
+        <v>3.9956048346818498E-2</v>
       </c>
       <c r="K41">
-        <v>0.0399560483468185</v>
+        <v>3.9956048346818498E-2</v>
       </c>
       <c r="M41">
-        <v>0.09989012086704625</v>
+        <v>9.9890120867046253E-2</v>
       </c>
       <c r="U41">
         <v>2.924746628361663</v>
       </c>
       <c r="V41">
-        <v>19.93855239007262</v>
+        <v>19.938552390072619</v>
       </c>
       <c r="W41">
-        <v>76.05538265102545</v>
+        <v>76.055382651025454</v>
       </c>
       <c r="X41">
-        <v>0.5745750538664113</v>
+        <v>0.57457505386641128</v>
       </c>
       <c r="Y41">
-        <v>0.1835448088739925</v>
+        <v>0.18354480887399249</v>
       </c>
       <c r="AA41">
-        <v>0.07581198627404037</v>
+        <v>7.5811986274040372E-2</v>
       </c>
       <c r="AC41">
-        <v>0.247386481525816</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.24738648152581599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
       </c>
       <c r="C42">
         <v>156</v>
@@ -3057,61 +3041,57 @@
         <v>11.25986612049156</v>
       </c>
       <c r="F42">
-        <v>51.37376361274853</v>
+        <v>51.373763612748533</v>
       </c>
       <c r="G42">
-        <v>35.81776401238885</v>
+        <v>35.817764012388849</v>
       </c>
       <c r="H42">
-        <v>1.099010890198821</v>
+        <v>1.0990108901988209</v>
       </c>
       <c r="I42">
         <v>0.179838145668898</v>
       </c>
       <c r="J42">
-        <v>0.09991008092716555</v>
+        <v>9.9910080927165551E-2</v>
       </c>
       <c r="K42">
-        <v>0.01998201618543311</v>
+        <v>1.9982016185433112E-2</v>
       </c>
       <c r="M42">
-        <v>0.09991008092716555</v>
+        <v>9.9910080927165551E-2</v>
       </c>
       <c r="Q42">
-        <v>0.04995504046358278</v>
+        <v>4.9955040463582782E-2</v>
       </c>
       <c r="U42">
-        <v>2.361953399297798</v>
+        <v>2.3619533992977981</v>
       </c>
       <c r="V42">
-        <v>15.99904245132461</v>
+        <v>15.999042451324611</v>
       </c>
       <c r="W42">
-        <v>80.15081391637409</v>
+        <v>80.150813916374091</v>
       </c>
       <c r="X42">
-        <v>0.7899776571975742</v>
+        <v>0.78997765719757418</v>
       </c>
       <c r="Y42">
-        <v>0.1556016597510373</v>
+        <v>0.15560165975103729</v>
       </c>
       <c r="AA42">
         <v>0.1715608043408873</v>
       </c>
       <c r="AC42">
-        <v>0.3710501117140121</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.37105011171401209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
       </c>
       <c r="C43">
         <v>157</v>
@@ -3120,13 +3100,13 @@
         <v>14.07481296758105</v>
       </c>
       <c r="F43">
-        <v>44.59850374064838</v>
+        <v>44.598503740648383</v>
       </c>
       <c r="G43">
-        <v>38.87281795511222</v>
+        <v>38.872817955112218</v>
       </c>
       <c r="H43">
-        <v>1.805486284289277</v>
+        <v>1.8054862842892769</v>
       </c>
       <c r="I43">
         <v>0.199501246882793</v>
@@ -3135,118 +3115,110 @@
         <v>0.1097256857855362</v>
       </c>
       <c r="M43">
-        <v>0.2693266832917706</v>
+        <v>0.26932668329177062</v>
       </c>
       <c r="P43">
-        <v>0.06982543640897755</v>
+        <v>6.9825436408977551E-2</v>
       </c>
       <c r="U43">
         <v>1.995291112973383</v>
       </c>
       <c r="V43">
-        <v>12.67807973183288</v>
+        <v>12.678079731832881</v>
       </c>
       <c r="W43">
-        <v>83.47499900235445</v>
+        <v>83.474999002354451</v>
       </c>
       <c r="X43">
-        <v>0.5387286005028133</v>
+        <v>0.53872860050281335</v>
       </c>
       <c r="Y43">
-        <v>0.323237160301688</v>
+        <v>0.32323716030168798</v>
       </c>
       <c r="AA43">
         <v>0.1995291112973383</v>
       </c>
       <c r="AC43">
-        <v>0.7901352807374596</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.79013528073745964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
       </c>
       <c r="C44">
         <v>158</v>
       </c>
       <c r="E44">
-        <v>13.79516273514482</v>
+        <v>13.795162735144819</v>
       </c>
       <c r="F44">
-        <v>47.7754553598089</v>
+        <v>47.775455359808902</v>
       </c>
       <c r="G44">
-        <v>37.86204837264855</v>
+        <v>37.862048372648552</v>
       </c>
       <c r="H44">
-        <v>0.547427092664477</v>
+        <v>0.54742709266447698</v>
       </c>
       <c r="I44">
-        <v>0.01990643973325371</v>
+        <v>1.9906439733253709E-2</v>
       </c>
       <c r="U44">
-        <v>4.603713316031143</v>
+        <v>4.6037133160311434</v>
       </c>
       <c r="V44">
-        <v>25.38231183869036</v>
+        <v>25.382311838690359</v>
       </c>
       <c r="W44">
-        <v>69.37911758834099</v>
+        <v>69.379117588340989</v>
       </c>
       <c r="X44">
-        <v>0.3353962866839688</v>
+        <v>0.33539628668396881</v>
       </c>
       <c r="Y44">
-        <v>0.03992812936713915</v>
+        <v>3.9928129367139152E-2</v>
       </c>
       <c r="AA44">
-        <v>0.0519065681772809</v>
+        <v>5.1906568177280898E-2</v>
       </c>
       <c r="AC44">
-        <v>0.2076262727091236</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.20762627270912359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
       </c>
       <c r="C45">
         <v>159</v>
       </c>
       <c r="E45">
-        <v>14.84328209223398</v>
+        <v>14.843282092233981</v>
       </c>
       <c r="F45">
-        <v>47.1151926532242</v>
+        <v>47.115192653224199</v>
       </c>
       <c r="G45">
-        <v>37.50249550808545</v>
+        <v>37.502495508085453</v>
       </c>
       <c r="H45">
-        <v>0.4392094230385306</v>
+        <v>0.43920942303853061</v>
       </c>
       <c r="I45">
-        <v>0.08983829107606309</v>
+        <v>8.9838291076063087E-2</v>
       </c>
       <c r="K45">
-        <v>0.009982032341784786</v>
+        <v>9.9820323417847863E-3</v>
       </c>
       <c r="U45">
-        <v>3.243932570836488</v>
+        <v>3.2439325708364879</v>
       </c>
       <c r="V45">
         <v>21.7471007850795</v>
@@ -3255,28 +3227,24 @@
         <v>74.18802056350377</v>
       </c>
       <c r="X45">
-        <v>0.4901765432590762</v>
+        <v>0.49017654325907623</v>
       </c>
       <c r="Y45">
-        <v>0.0318814011875822</v>
+        <v>3.1881401187582203E-2</v>
       </c>
       <c r="AA45">
-        <v>0.05977762722671661</v>
+        <v>5.9777627226716611E-2</v>
       </c>
       <c r="AC45">
-        <v>0.2391105089068664</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>0.23911050890686639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
       </c>
       <c r="C46">
         <v>160</v>
@@ -3285,67 +3253,63 @@
         <v>13.0339757599841</v>
       </c>
       <c r="F46">
-        <v>48.34094973177032</v>
+        <v>48.340949731770323</v>
       </c>
       <c r="G46">
-        <v>36.02225312934632</v>
+        <v>36.022253129346318</v>
       </c>
       <c r="H46">
-        <v>1.877607788595271</v>
+        <v>1.8776077885952711</v>
       </c>
       <c r="I46">
-        <v>0.3278362805483807</v>
+        <v>0.32783628054838071</v>
       </c>
       <c r="J46">
         <v>0.1390820584144645</v>
       </c>
       <c r="P46">
-        <v>0.2582952513411484</v>
+        <v>0.25829525134114839</v>
       </c>
       <c r="U46">
-        <v>4.180115560868699</v>
+        <v>4.1801155608686988</v>
       </c>
       <c r="V46">
-        <v>24.02869097429767</v>
+        <v>24.028690974297671</v>
       </c>
       <c r="W46">
-        <v>70.62761506276151</v>
+        <v>70.627615062761507</v>
       </c>
       <c r="X46">
-        <v>0.5658497708706913</v>
+        <v>0.56584977087069133</v>
       </c>
       <c r="Y46">
-        <v>0.2390914524805738</v>
+        <v>0.23909145248057381</v>
       </c>
       <c r="AA46">
-        <v>0.2072125921498306</v>
+        <v>0.20721259214983059</v>
       </c>
       <c r="AC46">
-        <v>0.1434548714883443</v>
+        <v>0.14345487148834429</v>
       </c>
       <c r="AI46">
-        <v>0.007969715082685794</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>7.9697150826857945E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
       </c>
       <c r="C47">
         <v>161</v>
       </c>
       <c r="E47">
-        <v>13.57642357642358</v>
+        <v>13.576423576423579</v>
       </c>
       <c r="F47">
-        <v>48.84115884115884</v>
+        <v>48.841158841158837</v>
       </c>
       <c r="G47">
         <v>36.11388611388611</v>
@@ -3354,325 +3318,301 @@
         <v>1.098901098901099</v>
       </c>
       <c r="I47">
-        <v>0.1298701298701299</v>
+        <v>0.12987012987012991</v>
       </c>
       <c r="J47">
-        <v>0.05994005994005994</v>
+        <v>5.9940059940059937E-2</v>
       </c>
       <c r="P47">
-        <v>0.1798201798201798</v>
+        <v>0.17982017982017981</v>
       </c>
       <c r="U47">
-        <v>3.861034661561166</v>
+        <v>3.8610346615611659</v>
       </c>
       <c r="V47">
-        <v>22.53599776634358</v>
+        <v>22.535997766343581</v>
       </c>
       <c r="W47">
-        <v>72.70551633361254</v>
+        <v>72.705516333612536</v>
       </c>
       <c r="X47">
         <v>0.6142555143392765</v>
       </c>
       <c r="Y47">
-        <v>0.1356148538151649</v>
+        <v>0.13561485381516489</v>
       </c>
       <c r="AA47">
-        <v>0.08775078776275379</v>
+        <v>8.7750787762753787E-2</v>
       </c>
       <c r="AC47">
-        <v>0.05983008256551394</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+        <v>5.9830082565513941E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
       </c>
       <c r="C48">
         <v>162</v>
       </c>
       <c r="E48">
-        <v>10.87715796826664</v>
+        <v>10.877157968266641</v>
       </c>
       <c r="F48">
-        <v>52.21035824767988</v>
+        <v>52.210358247679878</v>
       </c>
       <c r="G48">
-        <v>32.95080331304261</v>
+        <v>32.950803313042613</v>
       </c>
       <c r="H48">
-        <v>3.891827162957789</v>
+        <v>3.8918271629577892</v>
       </c>
       <c r="I48">
-        <v>0.06985330805308851</v>
+        <v>6.9853308053088509E-2</v>
       </c>
       <c r="U48">
         <v>2.424049118890041</v>
       </c>
       <c r="V48">
-        <v>20.04226138266486</v>
+        <v>20.042261382664861</v>
       </c>
       <c r="W48">
         <v>76.31369109321426</v>
       </c>
       <c r="X48">
-        <v>0.3388884458974564</v>
+        <v>0.33888844589745643</v>
       </c>
       <c r="Y48">
-        <v>0.3827445977194801</v>
+        <v>0.38274459771948011</v>
       </c>
       <c r="AA48">
-        <v>0.2870584482896101</v>
+        <v>0.28705844828961008</v>
       </c>
       <c r="AC48">
         <v>0.2113069133242963</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ST-Cycle_3</t>
-        </is>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
       </c>
       <c r="C49">
         <v>163</v>
       </c>
       <c r="E49">
-        <v>8.626198083067091</v>
+        <v>8.6261980830670915</v>
       </c>
       <c r="F49">
-        <v>51.2679712460064</v>
+        <v>51.267971246006397</v>
       </c>
       <c r="G49">
-        <v>39.23722044728434</v>
+        <v>39.237220447284344</v>
       </c>
       <c r="H49">
-        <v>0.5990415335463258</v>
+        <v>0.59904153354632583</v>
       </c>
       <c r="I49">
-        <v>0.2695686900958466</v>
+        <v>0.26956869009584661</v>
       </c>
       <c r="U49">
-        <v>2.066791684953916</v>
+        <v>2.0667916849539161</v>
       </c>
       <c r="V49">
-        <v>22.27985476598971</v>
+        <v>22.279854765989711</v>
       </c>
       <c r="W49">
-        <v>73.25140645573155</v>
+        <v>73.251406455731555</v>
       </c>
       <c r="X49">
-        <v>0.5825320193113355</v>
+        <v>0.58253201931133547</v>
       </c>
       <c r="Y49">
-        <v>0.8937477556557475</v>
+        <v>0.89374775565574749</v>
       </c>
       <c r="AA49">
-        <v>0.6104616366755775</v>
+        <v>0.61046163667557751</v>
       </c>
       <c r="AC49">
-        <v>0.315205681682161</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+        <v>0.31520568168216101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
       </c>
       <c r="C50">
         <v>165</v>
       </c>
       <c r="E50">
-        <v>8.422100547536088</v>
+        <v>8.4221005475360879</v>
       </c>
       <c r="F50">
-        <v>44.79840716774515</v>
+        <v>44.798407167745147</v>
       </c>
       <c r="G50">
-        <v>25.88352414136386</v>
+        <v>25.883524141363861</v>
       </c>
       <c r="H50">
         <v>20.53758088601294</v>
       </c>
       <c r="I50">
-        <v>0.3285216525634644</v>
+        <v>0.32852165256346438</v>
       </c>
       <c r="K50">
-        <v>0.02986560477849677</v>
+        <v>2.9865604778496771E-2</v>
       </c>
       <c r="U50">
-        <v>5.868975422917331</v>
+        <v>5.8689754229173312</v>
       </c>
       <c r="V50">
-        <v>37.82716246409193</v>
+        <v>37.827162464091927</v>
       </c>
       <c r="W50">
-        <v>42.07229492499202</v>
+        <v>42.072294924992022</v>
       </c>
       <c r="X50">
-        <v>13.9363230130865</v>
+        <v>13.936323013086501</v>
       </c>
       <c r="Y50">
-        <v>0.1994893073731248</v>
+        <v>0.19948930737312481</v>
       </c>
       <c r="AA50">
-        <v>0.0957548675390999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+        <v>9.5754867539099897E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
       </c>
       <c r="C51">
         <v>167</v>
       </c>
       <c r="E51">
-        <v>7.021743466985837</v>
+        <v>7.0217434669858374</v>
       </c>
       <c r="F51">
-        <v>47.25713145820865</v>
+        <v>47.257131458208647</v>
       </c>
       <c r="G51">
-        <v>26.02234191103132</v>
+        <v>26.022341911031319</v>
       </c>
       <c r="H51">
-        <v>19.57909435467784</v>
+        <v>19.579094354677839</v>
       </c>
       <c r="I51">
-        <v>0.08976660682226212</v>
+        <v>8.9766606822262118E-2</v>
       </c>
       <c r="K51">
-        <v>0.02992220227408737</v>
+        <v>2.9922202274087369E-2</v>
       </c>
       <c r="U51">
         <v>3.837408751844908</v>
       </c>
       <c r="V51">
-        <v>37.49252064302525</v>
+        <v>37.492520643025252</v>
       </c>
       <c r="W51">
-        <v>40.04946348079302</v>
+        <v>40.049463480793023</v>
       </c>
       <c r="X51">
         <v>18.18979616259125</v>
       </c>
       <c r="Y51">
-        <v>0.2034385097131916</v>
+        <v>0.20343850971319161</v>
       </c>
       <c r="AA51">
-        <v>0.2273724520323906</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+        <v>0.22737245203239059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
       </c>
       <c r="C52">
         <v>168</v>
       </c>
       <c r="E52">
-        <v>6.717831157181302</v>
+        <v>6.7178311571813021</v>
       </c>
       <c r="F52">
-        <v>47.45340376756702</v>
+        <v>47.453403767567018</v>
       </c>
       <c r="G52">
-        <v>21.5588557759394</v>
+        <v>21.558855775939399</v>
       </c>
       <c r="H52">
         <v>24.20013953951959</v>
       </c>
       <c r="I52">
-        <v>0.06976975979268414</v>
+        <v>6.9769759792684141E-2</v>
       </c>
       <c r="U52">
-        <v>2.595328408864045</v>
+        <v>2.5953284088640451</v>
       </c>
       <c r="V52">
         <v>33.35196646037133</v>
       </c>
       <c r="W52">
-        <v>40.39928129367139</v>
+        <v>40.399281293671393</v>
       </c>
       <c r="X52">
-        <v>22.96666001197844</v>
+        <v>22.966660011978441</v>
       </c>
       <c r="Y52">
-        <v>0.4991016170892394</v>
+        <v>0.49910161708923939</v>
       </c>
       <c r="AA52">
         <v>0.187662208025554</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
       </c>
       <c r="C53">
         <v>170</v>
       </c>
       <c r="E53">
-        <v>7.978032950574139</v>
+        <v>7.9780329505741392</v>
       </c>
       <c r="F53">
         <v>43.93409885172241</v>
       </c>
       <c r="G53">
-        <v>17.71342985521717</v>
+        <v>17.713429855217171</v>
       </c>
       <c r="H53">
-        <v>29.87518721917125</v>
+        <v>29.875187219171249</v>
       </c>
       <c r="I53">
-        <v>0.4992511233150275</v>
+        <v>0.49925112331502752</v>
       </c>
       <c r="U53">
-        <v>4.759055369395245</v>
+        <v>4.7590553693952451</v>
       </c>
       <c r="V53">
-        <v>40.13483325355035</v>
+        <v>40.134833253550347</v>
       </c>
       <c r="W53">
-        <v>27.94399234083293</v>
+        <v>27.943992340832931</v>
       </c>
       <c r="X53">
         <v>26.67145364608265</v>
@@ -3684,124 +3624,112 @@
         <v>0.2074357746928355</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
       </c>
       <c r="C54">
         <v>171</v>
       </c>
       <c r="E54">
-        <v>8.137793310034947</v>
+        <v>8.1377933100349473</v>
       </c>
       <c r="F54">
-        <v>46.06090863704443</v>
+        <v>46.060908637044427</v>
       </c>
       <c r="G54">
-        <v>19.9700449326011</v>
+        <v>19.970044932601098</v>
       </c>
       <c r="H54">
         <v>25.58162755866201</v>
       </c>
       <c r="I54">
-        <v>0.2496255616575138</v>
+        <v>0.24962556165751379</v>
       </c>
       <c r="U54">
-        <v>4.52515748345427</v>
+        <v>4.5251574834542696</v>
       </c>
       <c r="V54">
-        <v>40.53105812933578</v>
+        <v>40.531058129335783</v>
       </c>
       <c r="W54">
-        <v>31.25348855753129</v>
+        <v>31.253488557531291</v>
       </c>
       <c r="X54">
-        <v>23.3514073837812</v>
+        <v>23.351407383781201</v>
       </c>
       <c r="Y54">
-        <v>0.2631369109321426</v>
+        <v>0.26313691093214259</v>
       </c>
       <c r="AA54">
-        <v>0.07575153496531377</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+        <v>7.5751534965313769E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
       </c>
       <c r="C55">
         <v>172</v>
       </c>
       <c r="E55">
-        <v>7.382617382617383</v>
+        <v>7.3826173826173829</v>
       </c>
       <c r="F55">
-        <v>44.46553446553447</v>
+        <v>44.465534465534468</v>
       </c>
       <c r="G55">
-        <v>17.92207792207792</v>
+        <v>17.922077922077921</v>
       </c>
       <c r="H55">
-        <v>30.02997002997003</v>
+        <v>30.029970029970031</v>
       </c>
       <c r="I55">
-        <v>0.1998001998001998</v>
+        <v>0.19980019980019981</v>
       </c>
       <c r="U55">
-        <v>4.241819632881085</v>
+        <v>4.2418196328810849</v>
       </c>
       <c r="V55">
         <v>43.22825219473264</v>
       </c>
       <c r="W55">
-        <v>24.82043096568236</v>
+        <v>24.820430965682359</v>
       </c>
       <c r="X55">
-        <v>27.37031125299282</v>
+        <v>27.370311252992821</v>
       </c>
       <c r="Y55">
-        <v>0.2673583399840384</v>
+        <v>0.26735833998403841</v>
       </c>
       <c r="AA55">
-        <v>0.07182761372705507</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ST-Cycle_4</t>
-        </is>
+        <v>7.1827613727055067E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
       </c>
       <c r="C56">
         <v>173</v>
       </c>
       <c r="E56">
-        <v>6.998305253713488</v>
+        <v>6.9983052537134878</v>
       </c>
       <c r="F56">
-        <v>45.20984946665337</v>
+        <v>45.209849466653367</v>
       </c>
       <c r="G56">
-        <v>19.9082843186123</v>
+        <v>19.908284318612299</v>
       </c>
       <c r="H56">
         <v>27.56454989532449</v>
@@ -3810,10 +3738,10 @@
         <v>0.3190110656963413</v>
       </c>
       <c r="U56">
-        <v>3.70104204096299</v>
+        <v>3.7010420409629901</v>
       </c>
       <c r="V56">
-        <v>43.40639597556594</v>
+        <v>43.406395975565943</v>
       </c>
       <c r="W56">
         <v>26.58202579151196</v>
@@ -3822,10 +3750,10 @@
         <v>25.89531680440771</v>
       </c>
       <c r="Y56">
-        <v>0.2315646584421288</v>
+        <v>0.23156465844212881</v>
       </c>
       <c r="AA56">
-        <v>0.1836547291092746</v>
+        <v>0.18365472910927461</v>
       </c>
     </row>
   </sheetData>
